--- a/Webservices/WCF Notes.xlsx
+++ b/Webservices/WCF Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="8010" tabRatio="895"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="8010" tabRatio="895" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="WCF 1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="WCF 8 - Throttling" sheetId="8" r:id="rId8"/>
     <sheet name="WCF 9 - Security" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="293">
   <si>
     <t>WCF</t>
   </si>
@@ -2803,6 +2804,15 @@
   </si>
   <si>
     <t>Authentications available with Transport security are Windows, Username, Certificate, issuetoken &amp; None</t>
+  </si>
+  <si>
+    <t>ServiceContract</t>
+  </si>
+  <si>
+    <t>OperationsContract</t>
+  </si>
+  <si>
+    <t>DataMember</t>
   </si>
 </sst>
 </file>
@@ -3543,7 +3553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3891,6 +3901,48 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/Webservices/WCF Notes.xlsx
+++ b/Webservices/WCF Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="8010" tabRatio="895"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="8010" tabRatio="895" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="WCF 1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="WCF 8 - Throttling" sheetId="8" r:id="rId8"/>
     <sheet name="WCF 9 - Security" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="295">
   <si>
     <t>WCF</t>
   </si>
@@ -2803,6 +2804,21 @@
   </si>
   <si>
     <t>Authentications available with Transport security are Windows, Username, Certificate, issuetoken &amp; None</t>
+  </si>
+  <si>
+    <t>ServiceContract</t>
+  </si>
+  <si>
+    <t>OperationsContract</t>
+  </si>
+  <si>
+    <t>DataMember</t>
+  </si>
+  <si>
+    <t>MessageContarct</t>
+  </si>
+  <si>
+    <t>MessageBodyMember</t>
   </si>
 </sst>
 </file>
@@ -3543,7 +3559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3896,6 +3912,85 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Webservices/WCF Notes.xlsx
+++ b/Webservices/WCF Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="8010" tabRatio="895" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="8010" tabRatio="895" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="WCF 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="301">
   <si>
     <t>WCF</t>
   </si>
@@ -623,32 +623,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">With </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>basicHttpBinding</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> only server channel is faulted and clinnt proxy is okay. This binding makes new session each call</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -806,10 +780,6 @@
     </r>
   </si>
   <si>
-    <t>If class related by inheritance is being returned by an 'Operation contract', 
-WCF reurns only the base type. If inherited types (child classes) need to be returned then use KnowType Attribute</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Should be specifed above the base class as </t>
     </r>
@@ -875,53 +845,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>(above the interface)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. Apply </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ServiceKnownType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> attribute on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OperationContract </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(above the methos in interface)</t>
     </r>
   </si>
   <si>
@@ -1207,9 +1130,6 @@
     <t>C-Contract</t>
   </si>
   <si>
-    <t>Which operatons client can perform on the service</t>
-  </si>
-  <si>
     <t>Transport Protocal</t>
   </si>
   <si>
@@ -1499,9 +1419,6 @@
     </r>
   </si>
   <si>
-    <t>These opration contracts cannot have Return values, should be Void</t>
-  </si>
-  <si>
     <t>Duplex</t>
   </si>
   <si>
@@ -2819,6 +2736,107 @@
   </si>
   <si>
     <t>MessageBodyMember</t>
+  </si>
+  <si>
+    <t>different Bindings</t>
+  </si>
+  <si>
+    <t>If class related by inheritance is being returned by an 'Operation contract', 
+WCF returns only the base type. If inherited types (child classes) need to be returned then use KnowType Attribute</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Apply </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ServiceKnownType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attribute on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OperationContract </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(above the methods in interface)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>basicHttpBinding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> only server channel is faulted and client proxy is okay. This binding makes new session each call</t>
+    </r>
+  </si>
+  <si>
+    <t>address="CompanyService"</t>
+  </si>
+  <si>
+    <t>baseAddress="http://localhost:8080/"/</t>
+  </si>
+  <si>
+    <t>Message Encrypted</t>
+  </si>
+  <si>
+    <t>Message not encrypted (Plain text)</t>
+  </si>
+  <si>
+    <t>contract="CompanyService.IMyCompanyConfidentialService"</t>
+  </si>
+  <si>
+    <t>Which operatons client can perform on the service (Operation contract)</t>
+  </si>
+  <si>
+    <t>These operation contracts cannot have Return values, should be Void</t>
   </si>
 </sst>
 </file>
@@ -3099,7 +3117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3143,6 +3161,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3559,8 +3578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3627,7 +3646,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3726,52 +3745,52 @@
         <v>29</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>63</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3779,7 +3798,7 @@
         <v>31</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3790,76 +3809,76 @@
         <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3885,28 +3904,28 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3919,7 +3938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -3935,7 +3954,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3945,7 +3964,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3965,7 +3984,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -3975,17 +3994,17 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F7" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3998,8 +4017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4106,92 +4125,92 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4202,102 +4221,142 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C4" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>101</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>103</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>105</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>107</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>109</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>116</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4322,36 +4381,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
         <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4363,8 +4422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4375,91 +4434,91 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>139</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4467,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4475,12 +4534,12 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4488,12 +4547,12 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4501,7 +4560,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4509,7 +4568,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4517,38 +4576,38 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4573,136 +4632,136 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4715,7 +4774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -4732,12 +4791,12 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="26" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -4747,82 +4806,82 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H9" s="15"/>
     </row>
@@ -4837,41 +4896,41 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -4886,94 +4945,94 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H15" s="15"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4984,184 +5043,184 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>167</v>
-      </c>
       <c r="C28" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>167</v>
-      </c>
       <c r="C29" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F31" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E40" s="20"/>
     </row>
@@ -5190,59 +5249,59 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" t="s">
         <v>225</v>
-      </c>
-      <c r="B11" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5255,7 +5314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -5267,127 +5326,127 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B12" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" t="s">
         <v>238</v>
-      </c>
-      <c r="B17" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -5401,112 +5460,112 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B34" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="19" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B41" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="24" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="24" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="24" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="24" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="24" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="24" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="24" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B52" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B53" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/Webservices/WCF Notes.xlsx
+++ b/Webservices/WCF Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="8010" tabRatio="895" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="8010" tabRatio="895" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="WCF 1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="WCF 9 - Security" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
+    <sheet name="WCF Performance" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="307">
   <si>
     <t>WCF</t>
   </si>
@@ -2837,6 +2838,24 @@
   </si>
   <si>
     <t>These operation contracts cannot have Return values, should be Void</t>
+  </si>
+  <si>
+    <t>Selection of binding (basicHttpBinding performs better than WsHttpBinding)</t>
+  </si>
+  <si>
+    <t>Throttling settings</t>
+  </si>
+  <si>
+    <t>Data contract serialization is about 10% faster than XML serialization</t>
+  </si>
+  <si>
+    <t>Always close the proxy connection when the client is done with it. When we close the proxy connection, the service's session expires and the connection is closed   between the server and client.</t>
+  </si>
+  <si>
+    <t>Caching (WCF services do not have access to the ASP.NET cache by default)</t>
+  </si>
+  <si>
+    <t>Factors to be considered for WCF performance</t>
   </si>
 </sst>
 </file>
@@ -3158,10 +3177,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4013,6 +4032,74 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="173.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="http://asp.net/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
@@ -4252,10 +4339,10 @@
       <c r="B4" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4274,7 +4361,7 @@
       <c r="B6" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4795,14 +4882,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="16" t="s">
@@ -5314,8 +5401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
